--- a/Descargas/R15_Juzgado De Letras Y Garantia De Taltal_Garantia_Sentencias Por Delito_2018-Enero.xlsx
+++ b/Descargas/R15_Juzgado De Letras Y Garantia De Taltal_Garantia_Sentencias Por Delito_2018-Enero.xlsx
@@ -200,9 +200,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <cols>
-    <col min="1" max="1" width="52.650000000000006" customWidth="1"/>
-    <col min="2" max="2" width="54" customWidth="1"/>
-    <col min="3" max="3" width="6.75" customWidth="1"/>
+    <col min="1" max="1" width="54" customWidth="1"/>
+    <col min="2" max="2" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -216,15 +215,10 @@
     <row r="2">
       <c t="inlineStr" r="A2" s="2">
         <is>
-          <t xml:space="preserve">Tribunal</t>
+          <t xml:space="preserve">Materia</t>
         </is>
       </c>
       <c t="inlineStr" r="B2" s="2">
-        <is>
-          <t xml:space="preserve">Motivo Término</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="C2" s="2">
         <is>
           <t xml:space="preserve">Total</t>
         </is>
@@ -233,96 +227,196 @@
     <row r="3">
       <c t="inlineStr" r="A3">
         <is>
-          <t xml:space="preserve">Juzgado De Letras Y Garantía De Taltal.</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B3">
-        <is>
-          <t xml:space="preserve">Acoge Requerimiento (Monitorio).</t>
-        </is>
-      </c>
-      <c r="C3" s="65">
-        <v>12</v>
+          <t xml:space="preserve">Abuso Sexual Con Contacto De Menor De 14 Años. Art. 366 Bis</t>
+        </is>
+      </c>
+      <c r="B3" s="65">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">Juzgado De Letras Y Garantía De Taltal.</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B4">
-        <is>
-          <t xml:space="preserve">Aprobación No Inicio Investigación.</t>
-        </is>
-      </c>
-      <c r="C4" s="65">
-        <v>10</v>
+          <t xml:space="preserve">Amenazas Condic.c/Personas Y Propiedades Art.296 1Y2,Art.297</t>
+        </is>
+      </c>
+      <c r="B4" s="65">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">Juzgado De Letras Y Garantía De Taltal.</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B5">
-        <is>
-          <t xml:space="preserve">Comunica Y/O Aplica Decisión Ppio. De Oportunidad.</t>
-        </is>
-      </c>
-      <c r="C5" s="65">
+          <t xml:space="preserve">Amenazas Simples Contra Personas Y Propiedades Art. 296 Nº3.</t>
+        </is>
+      </c>
+      <c r="B5" s="65">
         <v>3</v>
       </c>
     </row>
     <row r="6">
       <c t="inlineStr" r="A6">
         <is>
-          <t xml:space="preserve">Juzgado De Letras Y Garantía De Taltal.</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B6">
-        <is>
-          <t xml:space="preserve">Declara Incompetencia.</t>
-        </is>
-      </c>
-      <c r="C6" s="65">
-        <v>6</v>
+          <t xml:space="preserve">Conduc. Estado De Ebriedad Con O Sin Daños O Lesiones Leves</t>
+        </is>
+      </c>
+      <c r="B6" s="65">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">Juzgado De Letras Y Garantía De Taltal.</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B7">
-        <is>
-          <t xml:space="preserve">Declara Sobreseimiento Definitivo.</t>
-        </is>
-      </c>
-      <c r="C7" s="65">
-        <v>8</v>
+          <t xml:space="preserve">Consumo/Porte En Lug.pub.o Priv.c/Previo Concierto(Art.50).</t>
+        </is>
+      </c>
+      <c r="B7" s="65">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">Juzgado De Letras Y Garantía De Taltal.</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B8">
-        <is>
-          <t xml:space="preserve">Sentencia.</t>
-        </is>
-      </c>
-      <c r="C8" s="65">
+          <t xml:space="preserve">Daños Simples.</t>
+        </is>
+      </c>
+      <c r="B8" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c t="inlineStr" r="A9">
+        <is>
+          <t xml:space="preserve">Falta De Respeto A Autoridad Pública (495 Nº 4 Código Penal)</t>
+        </is>
+      </c>
+      <c r="B9" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c t="inlineStr" r="A10">
+        <is>
+          <t xml:space="preserve">Hurto Falta (494 Bis Codigo Penal).</t>
+        </is>
+      </c>
+      <c r="B10" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c t="inlineStr" r="A11">
+        <is>
+          <t xml:space="preserve">Lesiones Graves.</t>
+        </is>
+      </c>
+      <c r="B11" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c t="inlineStr" r="A12">
+        <is>
+          <t xml:space="preserve">Lesiones Leves 494 N°5 Código Penal</t>
+        </is>
+      </c>
+      <c r="B12" s="65">
         <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c t="inlineStr" r="A13">
+        <is>
+          <t xml:space="preserve">Lesiones Leves.</t>
+        </is>
+      </c>
+      <c r="B13" s="65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c t="inlineStr" r="A14">
+        <is>
+          <t xml:space="preserve">Lesiones Menos Graves.</t>
+        </is>
+      </c>
+      <c r="B14" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c t="inlineStr" r="A15">
+        <is>
+          <t xml:space="preserve">Maltrato Obra A Carabineros Art. 416 Bis Codigo Just.militar</t>
+        </is>
+      </c>
+      <c r="B15" s="65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c t="inlineStr" r="A16">
+        <is>
+          <t xml:space="preserve">Porte De Arma Cortante O Punzante (288 Bis).</t>
+        </is>
+      </c>
+      <c r="B16" s="65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c t="inlineStr" r="A17">
+        <is>
+          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
+        </is>
+      </c>
+      <c r="B17" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c t="inlineStr" r="A18">
+        <is>
+          <t xml:space="preserve">Robo Con Violencia.</t>
+        </is>
+      </c>
+      <c r="B18" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c t="inlineStr" r="A19">
+        <is>
+          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
+        </is>
+      </c>
+      <c r="B19" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c t="inlineStr" r="A20">
+        <is>
+          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
+        </is>
+      </c>
+      <c r="B20" s="65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c t="inlineStr" r="A21">
+        <is>
+          <t xml:space="preserve">Violacion  De Morada.</t>
+        </is>
+      </c>
+      <c r="B21" s="65">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
 </worksheet>
 </file>